--- a/HRMS/MstLeaveApproverDepartmentWise.xlsx
+++ b/HRMS/MstLeaveApproverDepartmentWise.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t xml:space="preserve">Defination : </t>
   </si>
@@ -40,9 +40,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>IDENTITY (1,1)</t>
-  </si>
-  <si>
     <t>PRIMARY KEY</t>
   </si>
   <si>
@@ -61,38 +58,146 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
-    <t>nvarchar(100)</t>
-  </si>
-  <si>
-    <t>UpdatedBy</t>
-  </si>
-  <si>
-    <t>UpdatedOn</t>
-  </si>
-  <si>
-    <t>UpdatedByIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>VehicleCompanyId</t>
-  </si>
-  <si>
-    <t>VehicleCompanyName</t>
-  </si>
-  <si>
-    <t>Table Name - MstVehicleCompany</t>
+    <t>LeaveApproverDepartmentId</t>
+  </si>
+  <si>
+    <t>DepartmentId</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t>CreatedOn</t>
+  </si>
+  <si>
+    <t>CreatedByIP</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>LastUpdatedBy</t>
+  </si>
+  <si>
+    <t>LastUpdatedOn</t>
+  </si>
+  <si>
+    <t>LastUpdatedByIP</t>
+  </si>
+  <si>
+    <t>PeriodEnd</t>
+  </si>
+  <si>
+    <t>PeriodStart</t>
+  </si>
+  <si>
+    <t>LeaveLimit</t>
+  </si>
+  <si>
+    <t>decimal(18,2)</t>
+  </si>
+  <si>
+    <t>FourthLeaveLimit</t>
+  </si>
+  <si>
+    <t>FourthUserId</t>
+  </si>
+  <si>
+    <t>SecondLeaveLimit</t>
+  </si>
+  <si>
+    <t>SecondUserId</t>
+  </si>
+  <si>
+    <t>ThirdLeaveLimit</t>
+  </si>
+  <si>
+    <t>ThirdUserId</t>
+  </si>
+  <si>
+    <t>LeaveTypeId</t>
+  </si>
+  <si>
+    <t>BlockId</t>
+  </si>
+  <si>
+    <t>DistrictId</t>
+  </si>
+  <si>
+    <t>DivisionId</t>
+  </si>
+  <si>
+    <t>SchoolId</t>
+  </si>
+  <si>
+    <t>nvarchar(MAX)</t>
+  </si>
+  <si>
+    <t>Primary id for auto increatment.</t>
+  </si>
+  <si>
+    <t>Get Login UserId .</t>
+  </si>
+  <si>
+    <t>For active or inactive record.</t>
+  </si>
+  <si>
+    <t>Get Current Datetime when user Insert Record.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get LeaveTypeId  (MstOIS) in Numaric </t>
+  </si>
+  <si>
+    <t>Keep IP Address of User System.</t>
+  </si>
+  <si>
+    <t>Take input as date</t>
+  </si>
+  <si>
+    <t>Take LeaveLimit as Decimal.</t>
+  </si>
+  <si>
+    <t>Take SecondLeaveLimit as Decimal.</t>
+  </si>
+  <si>
+    <t>Take ThirdLeaveLimit as Decimal.</t>
+  </si>
+  <si>
+    <t>Take FourthLeaveLimit as Decimal.</t>
+  </si>
+  <si>
+    <t>Get SecondUserId Login UserId .</t>
+  </si>
+  <si>
+    <t>Get FourthUserId  Login UserId .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get DistrictId  (MstDistricts) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get DivisionId  (MstDivision) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get BlockId  (MstBlock) in Numaric </t>
+  </si>
+  <si>
+    <t>Take SchoolId as String.</t>
+  </si>
+  <si>
+    <t>Get ThirdUserId Login UserId .</t>
+  </si>
+  <si>
+    <t>Table Name - MstLeaveApproverDepartmentWise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,13 +212,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -143,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -160,6 +277,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,7 +591,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,13 +600,13 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="37" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -533,31 +657,33 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F6" s="5"/>
       <c r="J6" s="5"/>
@@ -567,15 +693,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -583,230 +711,378 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="F15" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="F17" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
-        <v>20</v>
+      <c r="F20" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="B24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="F25" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="B26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="B27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">

--- a/HRMS/MstLeaveApproverDepartmentWise.xlsx
+++ b/HRMS/MstLeaveApproverDepartmentWise.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
   <si>
     <t xml:space="preserve">Defination : </t>
   </si>
@@ -191,13 +191,16 @@
   </si>
   <si>
     <t>Table Name - MstLeaveApproverDepartmentWise</t>
+  </si>
+  <si>
+    <t>Note : The Colored column  denoted as dependent Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +220,14 @@
       <color rgb="FF1F1F1F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -260,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,12 +282,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -284,6 +289,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,7 +605,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="A29" sqref="A29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,32 +619,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -668,7 +682,7 @@
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -701,7 +715,7 @@
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J7" s="5"/>
@@ -720,7 +734,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -738,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -756,7 +770,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -774,7 +788,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -792,7 +806,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -810,7 +824,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -828,7 +842,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -846,7 +860,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -864,7 +878,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -882,7 +896,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -900,7 +914,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -918,7 +932,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -936,7 +950,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -954,7 +968,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -972,7 +986,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -990,7 +1004,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -998,7 +1012,7 @@
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1008,7 +1022,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1016,7 +1030,7 @@
       <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1026,7 +1040,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1034,7 +1048,7 @@
       <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -1044,7 +1058,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1052,7 +1066,7 @@
       <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1062,7 +1076,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1080,19 +1094,19 @@
         <v>13</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>25</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="A29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -1825,9 +1839,10 @@
       <c r="F102" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/HRMS/MstLeaveApproverDepartmentWise.xlsx
+++ b/HRMS/MstLeaveApproverDepartmentWise.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -194,6 +191,9 @@
   </si>
   <si>
     <t>Note : The Colored column  denoted as dependent Table</t>
+  </si>
+  <si>
+    <t>Defination : इस तालिका में विभाग के अनुसार अवकाश अनुमोदक का विवरण  है</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:F29"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -630,7 +630,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -648,22 +648,22 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -671,19 +671,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -691,13 +691,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="5"/>
       <c r="J6" s="5"/>
@@ -707,16 +707,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -725,17 +725,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -743,17 +743,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -761,17 +761,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -779,17 +779,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -797,17 +797,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -815,17 +815,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -833,17 +833,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -851,17 +851,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -869,17 +869,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -887,17 +887,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -905,17 +905,17 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -923,17 +923,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -941,17 +941,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -959,17 +959,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -977,17 +977,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -995,17 +995,17 @@
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1013,17 +1013,17 @@
         <v>20</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1031,17 +1031,17 @@
         <v>21</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1049,17 +1049,17 @@
         <v>22</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1067,17 +1067,17 @@
         <v>23</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1085,22 +1085,22 @@
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="D28" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
